--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D54D6B-D408-47F8-9D0E-D5B09DFB923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B18CEAC-3B92-4855-81D8-10EA9A7BEE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4747" yWindow="10373" windowWidth="9600" windowHeight="6000" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
+    <workbookView xWindow="-4767" yWindow="7180" windowWidth="9600" windowHeight="6000" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
   <si>
     <t>Concetto</t>
   </si>
@@ -135,8 +135,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (2S + 1L) x 1 al giorno = 2S + 1L = 5 al giorno</t>
-    </r>
+      <t>: (2S + 1L) x 3 al mese = 6S + 3L al mese = 15 al mese</t>
+    </r>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>MATERIALE</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>Aggiornare le quantità dei materiali in magazzino</t>
+  </si>
+  <si>
+    <t>COMPOSIZIONE</t>
+  </si>
+  <si>
+    <t>LAVORO</t>
+  </si>
+  <si>
+    <t>APPARTENENZA</t>
+  </si>
+  <si>
+    <t>TIPOLOGIA</t>
+  </si>
+  <si>
+    <t>Inserire un lavoro</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>Registrare il turno lavorativo</t>
+  </si>
+  <si>
+    <t>ELETTRICISTA CON RUOLO</t>
+  </si>
+  <si>
+    <t>ELETTRICISTA</t>
+  </si>
+  <si>
+    <t>RICOPRIRE</t>
+  </si>
+  <si>
+    <t>MANSIONE</t>
+  </si>
+  <si>
+    <t>FURGONE</t>
+  </si>
+  <si>
+    <t>UTILIZZO</t>
+  </si>
+  <si>
+    <t>REALIZZAZIONE</t>
+  </si>
+  <si>
+    <t>TURNO LAVORATIVO</t>
   </si>
   <si>
     <r>
@@ -158,14 +215,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (2S + 1L) x 3 al mese = 6S + 3L al mese = 15 al mese</t>
-    </r>
-  </si>
-  <si>
-    <t>4)</t>
-  </si>
-  <si>
-    <t>MATERIALE</t>
+      <t>: (4S + 5L) x 20 al giorno = 80S + 100L al giorno = 260 al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>Inserire un nuovo elettricista</t>
+  </si>
+  <si>
+    <t>RUOLO</t>
+  </si>
+  <si>
+    <t>TIPO RUOLO</t>
   </si>
   <si>
     <r>
@@ -187,32 +250,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (1S + 1L) x 10 al giorno = 10S + 10L al giorno = 30 al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>5)</t>
-  </si>
-  <si>
-    <t>Aggiornare le quantità dei materiali in magazzino</t>
-  </si>
-  <si>
-    <t>COMPOSIZIONE</t>
-  </si>
-  <si>
-    <t>LAVORO</t>
-  </si>
-  <si>
-    <t>APPARTENENZA</t>
-  </si>
-  <si>
-    <t>TIPOLOGIA</t>
-  </si>
-  <si>
-    <t>Inserire un lavoro</t>
-  </si>
-  <si>
-    <t>6)</t>
+      <t>: (4S + 1L) x 1 all'anno = 4S + 1L all'anno = 9 all'anno</t>
+    </r>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>Conteggiare il totale del costo di un impianto elettrico</t>
+  </si>
+  <si>
+    <t>MATERIALE IN LAVORO</t>
+  </si>
+  <si>
+    <t>DETTAGLI MATERIALE</t>
+  </si>
+  <si>
+    <t>SPECIFICAZIONE</t>
+  </si>
+  <si>
+    <t>MATERIALE IN PREVENTIVO</t>
   </si>
   <si>
     <r>
@@ -234,11 +291,167 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (3S + 2L) x 4 al giorno = 12S + 8L al giorno = 32 al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>DA FARE</t>
+      <t>: (27S + 26L) x 1 al giorno = 27S + 26L al giorno = 80 al giorno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (1S + 1L) x 25 al giorno = 25S + 25L al giorno = 75 al giorno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (63S + 22L) x 2 al giorno = 126S + 44L al giorno = 296 al giorno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 1051L x 10 al mese = 10510L al mese = 10510 al mese</t>
+    </r>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Stimare quale tipologia di lavoro è la più frequente</t>
+  </si>
+  <si>
+    <t>Stimare quale materiale è stato utilizzato di più</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 100.020L x 1 all'anno = 100.020L all'anno = 100.020 all'anno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2.000.500L x 1 all'anno = 2.000.500L all'anno = 2.000.500L all'anno</t>
+    </r>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>Contare le ore lavorative di un elettricista nell'ultimo mese</t>
+  </si>
+  <si>
+    <t>TURNO LAVORO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 123L x 10 al mese = 1230L al mese = 1230 al mese</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -288,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,13 +509,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,39 +838,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E751A-00C8-4844-91DD-983FBD960ACD}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="5" width="18.64453125" customWidth="1"/>
+    <col min="2" max="2" width="21.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -670,35 +890,35 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -745,327 +965,984 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B18" s="1" t="s">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B36" s="4" t="s">
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B37" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B38" s="1" t="s">
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>25</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>25</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
+        <v>500</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>500</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B76" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B39" s="1" t="s">
+      <c r="D76" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B77" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="C77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B78" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="7">
+        <v>500</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B42" s="3" t="s">
+      <c r="D83" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B85" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B89" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="7">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7">
+        <v>60</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="7">
+        <v>60</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B94" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B18CEAC-3B92-4855-81D8-10EA9A7BEE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13353428-1012-4A38-9F22-8CE444FAB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4767" yWindow="7180" windowWidth="9600" windowHeight="6000" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$88:$E$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -512,6 +515,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,9 +525,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E751A-00C8-4844-91DD-983FBD960ACD}">
   <dimension ref="A2:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -854,12 +857,12 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
@@ -890,23 +893,23 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
@@ -993,23 +996,23 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B17" s="3" t="s">
@@ -1068,23 +1071,23 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B24" s="3" t="s">
@@ -1129,23 +1132,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B30" s="3" t="s">
@@ -1288,23 +1291,23 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B43" s="3" t="s">
@@ -1447,23 +1450,23 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B56" s="3" t="s">
@@ -1550,23 +1553,23 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B65" s="3" t="s">
@@ -1653,23 +1656,23 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B74" s="3" t="s">
@@ -1692,7 +1695,7 @@
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="4">
         <v>50000</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -1706,7 +1709,7 @@
       <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="4">
         <v>50000</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -1728,12 +1731,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B79" s="2"/>
@@ -1745,12 +1748,12 @@
       <c r="A80" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B81" s="3" t="s">
@@ -1773,7 +1776,7 @@
       <c r="C82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="4">
         <v>500</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -1787,7 +1790,7 @@
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="4">
         <v>1000000</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -1801,7 +1804,7 @@
       <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="4">
         <v>1000000</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -1809,23 +1812,23 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B88" s="3" t="s">
@@ -1848,7 +1851,7 @@
       <c r="C89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -1862,7 +1865,7 @@
       <c r="C90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="4">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -1876,7 +1879,7 @@
       <c r="C91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="4">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -1890,7 +1893,7 @@
       <c r="C92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="4">
         <v>60</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -1904,7 +1907,7 @@
       <c r="C93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="4">
         <v>60</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -1912,15 +1915,30 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="B87:E87"/>
     <mergeCell ref="B94:E94"/>
     <mergeCell ref="B71:E71"/>
@@ -1928,22 +1946,9 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="11" scale="135" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13353428-1012-4A38-9F22-8CE444FAB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A0C6DA-9582-4F3A-8A51-8371AD3F3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$88:$E$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$8:$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -521,10 +521,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,13 +843,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E751A-00C8-4844-91DD-983FBD960ACD}">
   <dimension ref="A2:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="21.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.64453125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="18.64453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,23 +893,23 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
@@ -996,12 +996,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
@@ -1071,12 +1071,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
@@ -1132,12 +1132,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
@@ -1291,12 +1291,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
@@ -1450,12 +1450,12 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
@@ -1553,12 +1553,12 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
@@ -1656,12 +1656,12 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
@@ -1731,12 +1731,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B79" s="2"/>
@@ -1812,12 +1812,12 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
@@ -1915,20 +1915,22 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B85:E85"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B53:E53"/>
@@ -1939,16 +1941,14 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="11" scale="135" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="130" fitToWidth="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A0C6DA-9582-4F3A-8A51-8371AD3F3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF3617-7EFA-4962-B8D0-C1011F7DD89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$8:$E$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$82:$E$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
   <si>
     <t>Concetto</t>
   </si>
@@ -294,7 +294,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (27S + 26L) x 1 al giorno = 27S + 26L al giorno = 80 al giorno</t>
+      <t>: (1S + 1L) x 25 al giorno = 25S + 25L al giorno = 75 al giorno</t>
     </r>
   </si>
   <si>
@@ -317,7 +317,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (1S + 1L) x 25 al giorno = 25S + 25L al giorno = 75 al giorno</t>
+      <t>: (63S + 22L) x 2 al giorno = 126S + 44L al giorno = 296 al giorno</t>
     </r>
   </si>
   <si>
@@ -340,8 +340,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (63S + 22L) x 2 al giorno = 126S + 44L al giorno = 296 al giorno</t>
-    </r>
+      <t>: 1051L x 10 al mese = 10510L al mese = 10510 al mese</t>
+    </r>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Stimare quale tipologia di lavoro è la più frequente</t>
+  </si>
+  <si>
+    <t>Stimare quale materiale è stato utilizzato di più</t>
   </si>
   <si>
     <r>
@@ -363,17 +372,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 1051L x 10 al mese = 10510L al mese = 10510 al mese</t>
-    </r>
-  </si>
-  <si>
-    <t>9)</t>
-  </si>
-  <si>
-    <t>Stimare quale tipologia di lavoro è la più frequente</t>
-  </si>
-  <si>
-    <t>Stimare quale materiale è stato utilizzato di più</t>
+      <t>: 100.020L x 1 all'anno = 100.020L all'anno = 100.020 all'anno</t>
+    </r>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>Contare le ore lavorative di un elettricista nell'ultimo mese</t>
+  </si>
+  <si>
+    <t>TURNO LAVORO</t>
   </si>
   <si>
     <r>
@@ -395,8 +407,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 100.020L x 1 all'anno = 100.020L all'anno = 100.020 all'anno</t>
-    </r>
+      <t>: 123L x 10 al mese = 1230L al mese = 1230 al mese</t>
+    </r>
+  </si>
+  <si>
+    <t>OFFERTA</t>
   </si>
   <si>
     <r>
@@ -418,20 +433,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 2.000.500L x 1 all'anno = 2.000.500L all'anno = 2.000.500L all'anno</t>
-    </r>
-  </si>
-  <si>
-    <t>10)</t>
-  </si>
-  <si>
-    <t>11)</t>
-  </si>
-  <si>
-    <t>Contare le ore lavorative di un elettricista nell'ultimo mese</t>
-  </si>
-  <si>
-    <t>TURNO LAVORO</t>
+      <t>: (28S + 26L) x 1 al giorno = 28S + 26L al giorno = 82 al giorno</t>
+    </r>
   </si>
   <si>
     <r>
@@ -453,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 123L x 10 al mese = 1230L al mese = 1230 al mese</t>
+      <t>: 1.000.002L x 1 all'anno = 1.000.002L all'anno = 1.000.002L all'anno</t>
     </r>
   </si>
 </sst>
@@ -461,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +474,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -504,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,6 +529,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E751A-00C8-4844-91DD-983FBD960ACD}">
-  <dimension ref="A2:E94"/>
+  <dimension ref="A2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -853,18 +868,18 @@
     <col min="3" max="5" width="18.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -878,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -892,26 +907,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -925,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -938,8 +953,9 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,168 +969,168 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
@@ -1128,62 +1144,62 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1194,10 +1210,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1208,155 +1224,155 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -1367,10 +1383,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -1381,38 +1397,38 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
         <v>20</v>
@@ -1423,10 +1439,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D51" s="2">
         <v>20</v>
@@ -1437,71 +1453,71 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A55" t="s">
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -1512,102 +1528,102 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A64" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A65" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
@@ -1615,10 +1631,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2">
         <v>25</v>
@@ -1629,13 +1645,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D69" s="2">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
@@ -1643,10 +1659,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>500</v>
@@ -1656,58 +1672,58 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>500</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A73" t="s">
+      <c r="B74" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B75" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D76" s="4">
         <v>50000</v>
@@ -1718,77 +1734,77 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4">
+        <v>50000</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B78" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="2">
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2">
         <v>20</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B78" s="7" t="s">
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B79" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="4">
-        <v>500</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D83" s="4">
         <v>1000000</v>
@@ -1799,71 +1815,71 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B86" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A87" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B90" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -1874,10 +1890,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -1888,13 +1904,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B92" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D92" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
@@ -1902,10 +1918,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B93" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D93" s="4">
         <v>60</v>
@@ -1915,37 +1931,51 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B94" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="B94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="4">
+        <v>60</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B95" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B54:E54"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B56:E56"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF3617-7EFA-4962-B8D0-C1011F7DD89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F7407-1AC3-4950-BCCF-728FFC07EBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$82:$E$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$75:$E$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -353,6 +353,18 @@
     <t>Stimare quale materiale è stato utilizzato di più</t>
   </si>
   <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>Contare le ore lavorative di un elettricista nell'ultimo mese</t>
+  </si>
+  <si>
+    <t>TURNO LAVORO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -372,20 +384,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 100.020L x 1 all'anno = 100.020L all'anno = 100.020 all'anno</t>
-    </r>
-  </si>
-  <si>
-    <t>10)</t>
-  </si>
-  <si>
-    <t>11)</t>
-  </si>
-  <si>
-    <t>Contare le ore lavorative di un elettricista nell'ultimo mese</t>
-  </si>
-  <si>
-    <t>TURNO LAVORO</t>
+      <t>: 123L x 10 al mese = 1230L al mese = 1230 al mese</t>
+    </r>
+  </si>
+  <si>
+    <t>OFFERTA</t>
   </si>
   <si>
     <r>
@@ -407,11 +410,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 123L x 10 al mese = 1230L al mese = 1230 al mese</t>
-    </r>
-  </si>
-  <si>
-    <t>OFFERTA</t>
+      <t>: (28S + 26L) x 1 al giorno = 28S + 26L al giorno = 82 al giorno</t>
+    </r>
   </si>
   <si>
     <r>
@@ -433,7 +433,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (28S + 26L) x 1 al giorno = 28S + 26L al giorno = 82 al giorno</t>
+      <t>: 1.000.002L x 1 all'anno = 1.000.002L all'anno = 1.000.002L all'anno</t>
     </r>
   </si>
   <si>
@@ -456,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 1.000.002L x 1 all'anno = 1.000.002L all'anno = 1.000.002L all'anno</t>
+      <t>: 50.002L x 1 all'anno = 50.002L all'anno = 50.002 all'anno</t>
     </r>
   </si>
 </sst>
@@ -536,10 +536,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E751A-00C8-4844-91DD-983FBD960ACD}">
   <dimension ref="A2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -908,23 +908,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
@@ -971,7 +971,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -1026,12 +1026,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
@@ -1101,12 +1101,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
@@ -1162,12 +1162,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
@@ -1321,12 +1321,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
@@ -1480,12 +1480,12 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
@@ -1583,12 +1583,12 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
@@ -1686,12 +1686,12 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
@@ -1740,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="4">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
@@ -1754,19 +1754,19 @@
         <v>5</v>
       </c>
       <c r="D78" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B79" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="B79" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B80" s="2"/>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>57</v>
@@ -1842,19 +1842,19 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B86" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="B86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
@@ -1945,22 +1945,20 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B95" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="B95" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B54:E54"/>
@@ -1971,11 +1969,13 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F7407-1AC3-4950-BCCF-728FFC07EBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC31F2-4A3E-43D5-A53D-AF218153A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$75:$E$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$81:$E$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
   <si>
     <t>Concetto</t>
   </si>
@@ -433,7 +433,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 1.000.002L x 1 all'anno = 1.000.002L all'anno = 1.000.002L all'anno</t>
+      <t>: 1.000.001L x 1 all'anno = 1.000.001L all'anno = 1.000.001L all'anno</t>
     </r>
   </si>
   <si>
@@ -456,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 50.002L x 1 all'anno = 50.002L all'anno = 50.002 all'anno</t>
+      <t>: 50.001L x 1 all'anno = 50.001L all'anno = 50.001 all'anno</t>
     </r>
   </si>
 </sst>
@@ -536,10 +536,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -856,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499E751A-00C8-4844-91DD-983FBD960ACD}">
-  <dimension ref="A2:G95"/>
+  <dimension ref="A2:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:E79"/>
+      <selection activeCell="B81" sqref="B81:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -908,23 +908,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
@@ -1026,12 +1026,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
@@ -1101,12 +1101,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
@@ -1162,12 +1162,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
@@ -1321,12 +1321,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
@@ -1480,12 +1480,12 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
@@ -1583,12 +1583,12 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
@@ -1686,12 +1686,12 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
@@ -1734,12 +1734,12 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="4">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -1747,136 +1747,136 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B78" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B79" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="B81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>3</v>
+      <c r="B82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="4">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="4">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B85" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B86" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B90" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
@@ -1904,61 +1904,35 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="4">
-        <v>60</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B94" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="4">
-        <v>60</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B95" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B84:E84"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B54:E54"/>
@@ -1969,13 +1943,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Relazione/Tabelle/TabelleAccessi.xlsx
+++ b/Relazione/Tabelle/TabelleAccessi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Basi_Di_Dati_2021\Relazione\Tabelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC31F2-4A3E-43D5-A53D-AF218153A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028041C0-DD19-4F34-983F-0787B5C1D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{8B7D02E1-A157-41E1-83C1-B4728AF6E18B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$81:$E$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$B$87:$E$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -365,6 +365,9 @@
     <t>TURNO LAVORO</t>
   </si>
   <si>
+    <t>OFFERTA</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -384,11 +387,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 123L x 10 al mese = 1230L al mese = 1230 al mese</t>
-    </r>
-  </si>
-  <si>
-    <t>OFFERTA</t>
+      <t>: (28S + 26L) x 1 al giorno = 28S + 26L al giorno = 82 al giorno</t>
+    </r>
   </si>
   <si>
     <r>
@@ -410,7 +410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: (28S + 26L) x 1 al giorno = 28S + 26L al giorno = 82 al giorno</t>
+      <t>: 1.000.001L x 1 all'anno = 1.000.001L all'anno = 1.000.001L all'anno</t>
     </r>
   </si>
   <si>
@@ -433,7 +433,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 1.000.001L x 1 all'anno = 1.000.001L all'anno = 1.000.001L all'anno</t>
+      <t>: 50.001L x 1 all'anno = 50.001L all'anno = 50.001 all'anno</t>
     </r>
   </si>
   <si>
@@ -456,7 +456,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 50.001L x 1 all'anno = 50.001L all'anno = 50.001 all'anno</t>
+      <t>: 83L x 10 al mese = 830L al mese = 830 al mese</t>
     </r>
   </si>
 </sst>
@@ -536,10 +536,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +859,7 @@
   <dimension ref="A2:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:E84"/>
+      <selection activeCell="B87" sqref="B87:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -908,23 +908,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
@@ -971,7 +971,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -1026,12 +1026,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
@@ -1101,12 +1101,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
@@ -1162,12 +1162,12 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
@@ -1321,12 +1321,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
@@ -1480,12 +1480,12 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
@@ -1583,12 +1583,12 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
@@ -1686,12 +1686,12 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
@@ -1747,12 +1747,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B78" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B79" s="2"/>
@@ -1814,12 +1814,12 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B84" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="B84" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="D91" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
@@ -1910,29 +1910,27 @@
         <v>5</v>
       </c>
       <c r="D92" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B93" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B54:E54"/>
@@ -1943,11 +1941,13 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
